--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2117663333333333</v>
+        <v>1.880508333333333</v>
       </c>
       <c r="H2">
-        <v>0.6352989999999999</v>
+        <v>5.641525</v>
       </c>
       <c r="I2">
-        <v>0.0007631503638255413</v>
+        <v>0.00612536242232093</v>
       </c>
       <c r="J2">
-        <v>0.0007638890537190835</v>
+        <v>0.006141739094059122</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N2">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O2">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P2">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q2">
-        <v>0.02494550935644444</v>
+        <v>0.6509436011083333</v>
       </c>
       <c r="R2">
-        <v>0.224509584208</v>
+        <v>5.858492409975</v>
       </c>
       <c r="S2">
-        <v>7.932465335361069E-07</v>
+        <v>1.58494598033893E-05</v>
       </c>
       <c r="T2">
-        <v>7.943657941154037E-07</v>
+        <v>1.59262857676031E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2117663333333333</v>
+        <v>1.880508333333333</v>
       </c>
       <c r="H3">
-        <v>0.6352989999999999</v>
+        <v>5.641525</v>
       </c>
       <c r="I3">
-        <v>0.0007631503638255413</v>
+        <v>0.00612536242232093</v>
       </c>
       <c r="J3">
-        <v>0.0007638890537190835</v>
+        <v>0.006141739094059122</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.062472</v>
       </c>
       <c r="O3">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P3">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q3">
-        <v>0.004409822125333332</v>
+        <v>0.03915970553333333</v>
       </c>
       <c r="R3">
-        <v>0.039688399128</v>
+        <v>0.3524373498</v>
       </c>
       <c r="S3">
-        <v>1.402286906411794E-07</v>
+        <v>9.534776556776305E-07</v>
       </c>
       <c r="T3">
-        <v>1.404265515064786E-07</v>
+        <v>9.580993804027899E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2117663333333333</v>
+        <v>1.880508333333333</v>
       </c>
       <c r="H4">
-        <v>0.6352989999999999</v>
+        <v>5.641525</v>
       </c>
       <c r="I4">
-        <v>0.0007631503638255413</v>
+        <v>0.00612536242232093</v>
       </c>
       <c r="J4">
-        <v>0.0007638890537190835</v>
+        <v>0.006141739094059122</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N4">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O4">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P4">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q4">
-        <v>11.45757574703233</v>
+        <v>158.7298746870111</v>
       </c>
       <c r="R4">
-        <v>103.118181723291</v>
+        <v>1428.5688721831</v>
       </c>
       <c r="S4">
-        <v>0.0003643414176953974</v>
+        <v>0.003864824485816114</v>
       </c>
       <c r="T4">
-        <v>0.0003648554987143382</v>
+        <v>0.003883558175880201</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2117663333333333</v>
+        <v>1.880508333333333</v>
       </c>
       <c r="H5">
-        <v>0.6352989999999999</v>
+        <v>5.641525</v>
       </c>
       <c r="I5">
-        <v>0.0007631503638255413</v>
+        <v>0.00612536242232093</v>
       </c>
       <c r="J5">
-        <v>0.0007638890537190835</v>
+        <v>0.006141739094059122</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N5">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O5">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P5">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q5">
-        <v>0.031852621262</v>
+        <v>1.632565190091667</v>
       </c>
       <c r="R5">
-        <v>0.191115727572</v>
+        <v>9.795391140549999</v>
       </c>
       <c r="S5">
-        <v>1.012886970519706E-06</v>
+        <v>3.975041203679364E-05</v>
       </c>
       <c r="T5">
-        <v>6.762107606062069E-07</v>
+        <v>2.662872759623711E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2117663333333333</v>
+        <v>1.880508333333333</v>
       </c>
       <c r="H6">
-        <v>0.6352989999999999</v>
+        <v>5.641525</v>
       </c>
       <c r="I6">
-        <v>0.0007631503638255413</v>
+        <v>0.00612536242232093</v>
       </c>
       <c r="J6">
-        <v>0.0007638890537190835</v>
+        <v>0.006141739094059122</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N6">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O6">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P6">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q6">
-        <v>12.48028057135378</v>
+        <v>90.51852123995276</v>
       </c>
       <c r="R6">
-        <v>112.322525142184</v>
+        <v>814.6666911595748</v>
       </c>
       <c r="S6">
-        <v>0.0003968625839354469</v>
+        <v>0.002203984587008955</v>
       </c>
       <c r="T6">
-        <v>0.0003974225518985172</v>
+        <v>0.002214667805434677</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.101224</v>
       </c>
       <c r="I7">
-        <v>0.001322840892640187</v>
+        <v>0.001195668920754219</v>
       </c>
       <c r="J7">
-        <v>0.001324121333880179</v>
+        <v>0.001198865642200675</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N7">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O7">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P7">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q7">
-        <v>0.04324041686755555</v>
+        <v>0.1270639970906667</v>
       </c>
       <c r="R7">
-        <v>0.389163751808</v>
+        <v>1.143575973816</v>
       </c>
       <c r="S7">
-        <v>1.375009437519602E-06</v>
+        <v>3.093809833782104E-06</v>
       </c>
       <c r="T7">
-        <v>1.376949558017471E-06</v>
+        <v>3.108806239118493E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.101224</v>
       </c>
       <c r="I8">
-        <v>0.001322840892640187</v>
+        <v>0.001195668920754219</v>
       </c>
       <c r="J8">
-        <v>0.001324121333880179</v>
+        <v>0.001198865642200675</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.062472</v>
       </c>
       <c r="O8">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P8">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q8">
         <v>0.007643962858666666</v>
@@ -948,10 +948,10 @@
         <v>0.068795665728</v>
       </c>
       <c r="S8">
-        <v>2.430716869106391E-07</v>
+        <v>1.861185544504266E-07</v>
       </c>
       <c r="T8">
-        <v>2.434146579109529E-07</v>
+        <v>1.870207137404659E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.101224</v>
       </c>
       <c r="I9">
-        <v>0.001322840892640187</v>
+        <v>0.001195668920754219</v>
       </c>
       <c r="J9">
-        <v>0.001324121333880179</v>
+        <v>0.001198865642200675</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N9">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O9">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P9">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q9">
-        <v>19.86050252629067</v>
+        <v>30.98402427044622</v>
       </c>
       <c r="R9">
-        <v>178.744522736616</v>
+        <v>278.856218434016</v>
       </c>
       <c r="S9">
-        <v>0.0006315475285813395</v>
+        <v>0.0007544125887181861</v>
       </c>
       <c r="T9">
-        <v>0.0006324386339600699</v>
+        <v>0.0007580693994399562</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>1.101224</v>
       </c>
       <c r="I10">
-        <v>0.001322840892640187</v>
+        <v>0.001195668920754219</v>
       </c>
       <c r="J10">
-        <v>0.001324121333880179</v>
+        <v>0.001198865642200675</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N10">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O10">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P10">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q10">
-        <v>0.055213168912</v>
+        <v>0.3186762389413333</v>
       </c>
       <c r="R10">
-        <v>0.3312790134720001</v>
+        <v>1.912057433648</v>
       </c>
       <c r="S10">
-        <v>1.755733034718444E-06</v>
+        <v>7.759268592234554E-06</v>
       </c>
       <c r="T10">
-        <v>1.172140234185493E-06</v>
+        <v>5.197919696968216E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.101224</v>
       </c>
       <c r="I11">
-        <v>0.001322840892640187</v>
+        <v>0.001195668920754219</v>
       </c>
       <c r="J11">
-        <v>0.001324121333880179</v>
+        <v>0.001198865642200675</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N11">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O11">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P11">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q11">
-        <v>21.63325377799822</v>
+        <v>17.66918839036355</v>
       </c>
       <c r="R11">
-        <v>194.699284001984</v>
+        <v>159.022695513272</v>
       </c>
       <c r="S11">
-        <v>0.0006879195498996985</v>
+        <v>0.0004302171350555656</v>
       </c>
       <c r="T11">
-        <v>0.0006888901954699956</v>
+        <v>0.0004323024961108914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>114.6337583333333</v>
+        <v>149.8369953333333</v>
       </c>
       <c r="H12">
-        <v>343.901275</v>
+        <v>449.510986</v>
       </c>
       <c r="I12">
-        <v>0.4131100208505248</v>
+        <v>0.4880626607282304</v>
       </c>
       <c r="J12">
-        <v>0.4135098898826164</v>
+        <v>0.489367537310437</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N12">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O12">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P12">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q12">
-        <v>13.50355104164444</v>
+        <v>51.86652544561933</v>
       </c>
       <c r="R12">
-        <v>121.5319593748</v>
+        <v>466.798729010574</v>
       </c>
       <c r="S12">
-        <v>0.000429401737248756</v>
+        <v>0.001262868870347803</v>
       </c>
       <c r="T12">
-        <v>0.000430007617535483</v>
+        <v>0.001268990285200019</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>114.6337583333333</v>
+        <v>149.8369953333333</v>
       </c>
       <c r="H13">
-        <v>343.901275</v>
+        <v>449.510986</v>
       </c>
       <c r="I13">
-        <v>0.4131100208505248</v>
+        <v>0.4880626607282304</v>
       </c>
       <c r="J13">
-        <v>0.4135098898826164</v>
+        <v>0.489367537310437</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.062472</v>
       </c>
       <c r="O13">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P13">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q13">
-        <v>2.387133383533333</v>
+        <v>3.120205590821333</v>
       </c>
       <c r="R13">
-        <v>21.4842004518</v>
+        <v>28.081850317392</v>
       </c>
       <c r="S13">
-        <v>7.590886417746944E-05</v>
+        <v>7.597213184956554E-05</v>
       </c>
       <c r="T13">
-        <v>7.601597060113612E-05</v>
+        <v>7.634038618473678E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.6337583333333</v>
+        <v>149.8369953333333</v>
       </c>
       <c r="H14">
-        <v>343.901275</v>
+        <v>449.510986</v>
       </c>
       <c r="I14">
-        <v>0.4131100208505248</v>
+        <v>0.4880626607282304</v>
       </c>
       <c r="J14">
-        <v>0.4135098898826164</v>
+        <v>0.489367537310437</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N14">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O14">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P14">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q14">
-        <v>6202.236911774608</v>
+        <v>12647.43530839885</v>
       </c>
       <c r="R14">
-        <v>55820.13220597148</v>
+        <v>113826.9177755896</v>
       </c>
       <c r="S14">
-        <v>0.1972259960754774</v>
+        <v>0.3079452923342793</v>
       </c>
       <c r="T14">
-        <v>0.1975042794001278</v>
+        <v>0.3094379737443813</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.6337583333333</v>
+        <v>149.8369953333333</v>
       </c>
       <c r="H15">
-        <v>343.901275</v>
+        <v>449.510986</v>
       </c>
       <c r="I15">
-        <v>0.4131100208505248</v>
+        <v>0.4880626607282304</v>
       </c>
       <c r="J15">
-        <v>0.4135098898826164</v>
+        <v>0.489367537310437</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N15">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O15">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P15">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q15">
-        <v>17.24252212595</v>
+        <v>130.0811373356287</v>
       </c>
       <c r="R15">
-        <v>103.4551327557</v>
+        <v>780.486824013772</v>
       </c>
       <c r="S15">
-        <v>0.0005482979204950966</v>
+        <v>0.003167272485465434</v>
       </c>
       <c r="T15">
-        <v>0.0003660477078370883</v>
+        <v>0.002121749987407652</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.6337583333333</v>
+        <v>149.8369953333333</v>
       </c>
       <c r="H16">
-        <v>343.901275</v>
+        <v>449.510986</v>
       </c>
       <c r="I16">
-        <v>0.4131100208505248</v>
+        <v>0.4880626607282304</v>
       </c>
       <c r="J16">
-        <v>0.4135098898826164</v>
+        <v>0.489367537310437</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N16">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O16">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P16">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q16">
-        <v>6755.849451748378</v>
+        <v>7212.423898473039</v>
       </c>
       <c r="R16">
-        <v>60802.6450657354</v>
+        <v>64911.81508625735</v>
       </c>
       <c r="S16">
-        <v>0.214830416253126</v>
+        <v>0.1756112549062883</v>
       </c>
       <c r="T16">
-        <v>0.2151335391865149</v>
+        <v>0.1764624829072632</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8050075</v>
+        <v>2.455834</v>
       </c>
       <c r="H17">
-        <v>1.610015</v>
+        <v>4.911668</v>
       </c>
       <c r="I17">
-        <v>0.002901036046840729</v>
+        <v>0.007999365401584553</v>
       </c>
       <c r="J17">
-        <v>0.001935896065983939</v>
+        <v>0.005347168251960096</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N17">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O17">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P17">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q17">
-        <v>0.09482773681333333</v>
+        <v>0.8500943066019999</v>
       </c>
       <c r="R17">
-        <v>0.5689664208799999</v>
+        <v>5.100565839612</v>
       </c>
       <c r="S17">
-        <v>3.015443478640298E-06</v>
+        <v>2.069846837519825E-05</v>
       </c>
       <c r="T17">
-        <v>2.013132153541422E-06</v>
+        <v>1.386586573020444E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8050075</v>
+        <v>2.455834</v>
       </c>
       <c r="H18">
-        <v>1.610015</v>
+        <v>4.911668</v>
       </c>
       <c r="I18">
-        <v>0.002901036046840729</v>
+        <v>0.007999365401584553</v>
       </c>
       <c r="J18">
-        <v>0.001935896065983939</v>
+        <v>0.005347168251960096</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.062472</v>
       </c>
       <c r="O18">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P18">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q18">
-        <v>0.01676347618</v>
+        <v>0.051140287216</v>
       </c>
       <c r="R18">
-        <v>0.10058085708</v>
+        <v>0.306841723296</v>
       </c>
       <c r="S18">
-        <v>5.330646562390113E-07</v>
+        <v>1.245186103963069E-06</v>
       </c>
       <c r="T18">
-        <v>3.558778690407245E-07</v>
+        <v>8.34147870929263E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8050075</v>
+        <v>2.455834</v>
       </c>
       <c r="H19">
-        <v>1.610015</v>
+        <v>4.911668</v>
       </c>
       <c r="I19">
-        <v>0.002901036046840729</v>
+        <v>0.007999365401584553</v>
       </c>
       <c r="J19">
-        <v>0.001935896065983939</v>
+        <v>0.005347168251960096</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N19">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O19">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P19">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q19">
-        <v>43.5547722010225</v>
+        <v>207.2919413130853</v>
       </c>
       <c r="R19">
-        <v>261.328633206135</v>
+        <v>1243.751647878512</v>
       </c>
       <c r="S19">
-        <v>0.001385005676722745</v>
+        <v>0.005047234946029521</v>
       </c>
       <c r="T19">
-        <v>0.0009246399345230598</v>
+        <v>0.003381133367061062</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8050075</v>
+        <v>2.455834</v>
       </c>
       <c r="H20">
-        <v>1.610015</v>
+        <v>4.911668</v>
       </c>
       <c r="I20">
-        <v>0.002901036046840729</v>
+        <v>0.007999365401584553</v>
       </c>
       <c r="J20">
-        <v>0.001935896065983939</v>
+        <v>0.005347168251960096</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N20">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O20">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P20">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q20">
-        <v>0.121084398105</v>
+        <v>2.132034742934</v>
       </c>
       <c r="R20">
-        <v>0.4843375924200001</v>
+        <v>8.528138971736</v>
       </c>
       <c r="S20">
-        <v>3.850383557603471E-06</v>
+        <v>5.191171539289486E-05</v>
       </c>
       <c r="T20">
-        <v>1.713696177291956E-06</v>
+        <v>2.318370816670222E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8050075</v>
+        <v>2.455834</v>
       </c>
       <c r="H21">
-        <v>1.610015</v>
+        <v>4.911668</v>
       </c>
       <c r="I21">
-        <v>0.002901036046840729</v>
+        <v>0.007999365401584553</v>
       </c>
       <c r="J21">
-        <v>0.001935896065983939</v>
+        <v>0.005347168251960096</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N21">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O21">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P21">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q21">
-        <v>47.44247729987333</v>
+        <v>118.2118994903673</v>
       </c>
       <c r="R21">
-        <v>284.65486379924</v>
+        <v>709.2713969422039</v>
       </c>
       <c r="S21">
-        <v>0.001508631478425502</v>
+        <v>0.002878275085682976</v>
       </c>
       <c r="T21">
-        <v>0.001007173425261005</v>
+        <v>0.001928151163131198</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>161.472051</v>
+        <v>152.4631906666667</v>
       </c>
       <c r="H22">
-        <v>484.416153</v>
+        <v>457.389572</v>
       </c>
       <c r="I22">
-        <v>0.5819029518461687</v>
+        <v>0.4966169425271099</v>
       </c>
       <c r="J22">
-        <v>0.5824662036638004</v>
+        <v>0.4979446897013431</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1177973333333333</v>
+        <v>0.346153</v>
       </c>
       <c r="N22">
-        <v>0.353392</v>
+        <v>1.038459</v>
       </c>
       <c r="O22">
-        <v>0.001039436749475816</v>
+        <v>0.002587513800919532</v>
       </c>
       <c r="P22">
-        <v>0.001039896815182703</v>
+        <v>0.002593123140481257</v>
       </c>
       <c r="Q22">
-        <v>19.020977015664</v>
+        <v>52.77559083883866</v>
       </c>
       <c r="R22">
-        <v>171.188793140976</v>
+        <v>474.980317549548</v>
       </c>
       <c r="S22">
-        <v>0.0006048513127773637</v>
+        <v>0.001285003192559359</v>
       </c>
       <c r="T22">
-        <v>0.0006057047501415458</v>
+        <v>0.001291231897544312</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>161.472051</v>
+        <v>152.4631906666667</v>
       </c>
       <c r="H23">
-        <v>484.416153</v>
+        <v>457.389572</v>
       </c>
       <c r="I23">
-        <v>0.5819029518461687</v>
+        <v>0.4966169425271099</v>
       </c>
       <c r="J23">
-        <v>0.5824662036638004</v>
+        <v>0.4979446897013431</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.062472</v>
       </c>
       <c r="O23">
-        <v>0.0001837497527200762</v>
+        <v>0.0001556606107424992</v>
       </c>
       <c r="P23">
-        <v>0.0001838310823054677</v>
+        <v>0.000155998059463248</v>
       </c>
       <c r="Q23">
-        <v>3.362493990024</v>
+        <v>3.174893482442666</v>
       </c>
       <c r="R23">
-        <v>30.262445910216</v>
+        <v>28.574041341984</v>
       </c>
       <c r="S23">
-        <v>0.0001069245235088159</v>
+        <v>7.730369657884257E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001070753926258734</v>
+        <v>7.767840531343869E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>161.472051</v>
+        <v>152.4631906666667</v>
       </c>
       <c r="H24">
-        <v>484.416153</v>
+        <v>457.389572</v>
       </c>
       <c r="I24">
-        <v>0.5819029518461687</v>
+        <v>0.4966169425271099</v>
       </c>
       <c r="J24">
-        <v>0.5824662036638004</v>
+        <v>0.4979446897013431</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>54.104803</v>
+        <v>84.40796133333333</v>
       </c>
       <c r="N24">
-        <v>162.314409</v>
+        <v>253.223884</v>
       </c>
       <c r="O24">
-        <v>0.4774176033527871</v>
+        <v>0.630954418587972</v>
       </c>
       <c r="P24">
-        <v>0.4776289134370973</v>
+        <v>0.6323222325801418</v>
       </c>
       <c r="Q24">
-        <v>8736.413509360953</v>
+        <v>12869.10710254863</v>
       </c>
       <c r="R24">
-        <v>78627.72158424859</v>
+        <v>115821.9639229376</v>
       </c>
       <c r="S24">
-        <v>0.2778107126543101</v>
+        <v>0.3133426542331289</v>
       </c>
       <c r="T24">
-        <v>0.278202699969772</v>
+        <v>0.3148614978933792</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>161.472051</v>
+        <v>152.4631906666667</v>
       </c>
       <c r="H25">
-        <v>484.416153</v>
+        <v>457.389572</v>
       </c>
       <c r="I25">
-        <v>0.5819029518461687</v>
+        <v>0.4966169425271099</v>
       </c>
       <c r="J25">
-        <v>0.5824662036638004</v>
+        <v>0.4979446897013431</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.150414</v>
+        <v>0.868151</v>
       </c>
       <c r="N25">
-        <v>0.300828</v>
+        <v>1.736302</v>
       </c>
       <c r="O25">
-        <v>0.001327244300117055</v>
+        <v>0.006489479200764093</v>
       </c>
       <c r="P25">
-        <v>0.0008852211683280386</v>
+        <v>0.004335698275101748</v>
       </c>
       <c r="Q25">
-        <v>24.287657079114</v>
+        <v>132.3610714404573</v>
       </c>
       <c r="R25">
-        <v>145.725942474684</v>
+        <v>794.166428642744</v>
       </c>
       <c r="S25">
-        <v>0.0007723273760591163</v>
+        <v>0.003222785319276737</v>
       </c>
       <c r="T25">
-        <v>0.0005156114133188667</v>
+        <v>0.002158937932234189</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>161.472051</v>
+        <v>152.4631906666667</v>
       </c>
       <c r="H26">
-        <v>484.416153</v>
+        <v>457.389572</v>
       </c>
       <c r="I26">
-        <v>0.5819029518461687</v>
+        <v>0.4966169425271099</v>
       </c>
       <c r="J26">
-        <v>0.5824662036638004</v>
+        <v>0.4979446897013431</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.93420533333333</v>
+        <v>48.13513433333333</v>
       </c>
       <c r="N26">
-        <v>176.802616</v>
+        <v>144.405403</v>
       </c>
       <c r="O26">
-        <v>0.5200319658449</v>
+        <v>0.3598129277996019</v>
       </c>
       <c r="P26">
-        <v>0.5202621374970866</v>
+        <v>0.3605929479448119</v>
       </c>
       <c r="Q26">
-        <v>9516.227009228471</v>
+        <v>7338.836163628612</v>
       </c>
       <c r="R26">
-        <v>85646.04308305625</v>
+        <v>66049.52547265751</v>
       </c>
       <c r="S26">
-        <v>0.3026081359795132</v>
+        <v>0.178689196085566</v>
       </c>
       <c r="T26">
-        <v>0.3030351121379422</v>
+        <v>0.1795553435728719</v>
       </c>
     </row>
   </sheetData>
